--- a/output/HONDA_04-03-2024.xlsx
+++ b/output/HONDA_04-03-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7340,20 +7340,16 @@
           <t>74440TG7A01</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>176202055011</t>
-        </is>
+      <c r="C88" t="n">
+        <v>176202055011</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/NTE2WDY0MA==/z/D4YAAOSw4sRlr-GF/$_12.PNG?set_id=880000500F']</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>33656</t>
-        </is>
+      <c r="E88" t="n">
+        <v>33656</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7400,24 +7396,296 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="W88" t="n">
+        <v>40</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
           <t>Genuine Honda Weatherstrip Tailgate 74440-TG7-A01</t>
         </is>
       </c>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>56.94</t>
-        </is>
+      <c r="Y88" t="n">
+        <v>56.94</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
           <t>[{'Year': '2022', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Black Edition Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Special Edition Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'TrailSport Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Black Edition Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Special Edition Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Black Edition Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>74440SWA003</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>374563070456</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTAwMFgxMDAw/z/D3sAAOSwKuBkEEhh/$_10.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>33656</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Doors, Trunk Lids &amp; Hatches:Hatches &amp; Trunk Lids</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>74440</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>74440-SWA-003</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>74440-SXS-A01</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>CR-V</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>74440-SWA-003</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="W89" t="n">
+        <v>16</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>NEW 74440-SXS-A01 FOR 2007-2011 Honda CRV rear tailgate sealant strip</t>
+        </is>
+      </c>
+      <c r="Y89" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>[{'Year': '2011', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'SE Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>74441S9A003</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>385707499936</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTIwMFgxNjAw/z/4zgAAOSw~wZklzlT/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>33685</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Glass &amp; Window Parts:Window Seals, Gaskets &amp; Trims</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>JHLRD78473C035152</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>74441S9A003</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>74441S9A003</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>CR-V</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>['Rear']</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Seal Molding</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="W90" t="n">
+        <v>4</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>2002-2006 Honda CR-V Back Glass Seal Molding Used OEM 74441S9A003</t>
+        </is>
+      </c>
+      <c r="Y90" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>[{'Year': '2006', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Honda', 'Model': 'CR-V', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>74448TG7A02</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>295011510343</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MjA2WDY0MA==/z/iFQAAOSw2lJilQRf/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>33685</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Glass &amp; Window Parts:Window Seals, Gaskets &amp; Trims</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>74448-TG7-A02</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>74448-TG7-A01</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Genuine Honda Seal Tailgate Roof 74448-TG7-A02</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>69.56</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>[{'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Special Edition Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Black Edition Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2019', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2018', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Elite Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2016', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}]</t>
         </is>
       </c>
     </row>
